--- a/outputs-r202/g__Ruminococcus.xlsx
+++ b/outputs-r202/g__Ruminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +680,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -829,6 +834,11 @@
         <v>0.9767578882811164</v>
       </c>
       <c r="AW2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus flavefaciens_C</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>s__Ruminococcus flavefaciens_C</t>
         </is>

--- a/outputs-r202/g__Ruminococcus.xlsx
+++ b/outputs-r202/g__Ruminococcus.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,156 +689,472 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>RUG007.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.86198070419119e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.458031520311116e-08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002138678565850297</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9387010103366749</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.41591252776013e-05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003217988382682186</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.006419080484948855</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.636185767826763e-11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.333681245662691e-07</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.01513501804740619</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.03437377510452325</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.250992805650003e-10</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2.220676876229253e-14</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9387010103366749</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus flavefaciens_E</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus flavefaciens_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG127.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.090572794506802e-13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.596820677810587e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.006855197566363273</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.15658909139687e-07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.790145806667934e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.388949959230619e-06</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.029722677354543e-06</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.070620567752649e-10</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.12351641836774e-09</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.815721116856822e-13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.099335898588728e-09</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7.516657688615734e-06</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3.964634601763112e-13</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.9930891444540642</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2.220221216857864e-14</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.9930891444540642</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900315755</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus sp900315755</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>RUG393.fasta</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="C4" t="n">
         <v>1.834510665777894e-09</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D4" t="n">
         <v>0.004576586325071432</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E4" t="n">
         <v>0.9773581237322259</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.73426735358348e-06</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H4" t="n">
         <v>6.409953243040749e-05</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I4" t="n">
         <v>3.449899511944544e-05</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="J4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.667757141135699e-05</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M4" t="n">
         <v>5.068563396007166e-08</v>
       </c>
-      <c r="N2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="S4" t="n">
         <v>6.011851374669572e-08</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="T4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="V4" t="n">
         <v>8.748427101033164e-05</v>
       </c>
-      <c r="W2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="W4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.00890962547257103</v>
       </c>
-      <c r="AD2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AD4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AH4" t="n">
         <v>0.00890962547257103</v>
       </c>
-      <c r="AI2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AI4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AM4" t="n">
         <v>8.431720844487426e-06</v>
       </c>
-      <c r="AN2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>2.220420451803736e-14</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="AN4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2.220420451803736e-14</v>
+      </c>
+      <c r="AV4" t="n">
         <v>0.9773581237322259</v>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>s__Ruminococcus flavefaciens_C</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>s__Ruminococcus flavefaciens_C</t>
         </is>
